--- a/day07_message_construction/task3/Assets/ETA.xlsx
+++ b/day07_message_construction/task3/Assets/ETA.xlsx
@@ -105,8 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -427,12 +428,12 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10" style="3" collapsed="1"/>
+    <col min="4" max="4" width="10" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -459,7 +460,7 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>44606.520833333336</v>
       </c>
     </row>
@@ -473,7 +474,7 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>44606.5625</v>
       </c>
     </row>
@@ -487,7 +488,7 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>44606.604166666664</v>
       </c>
     </row>
